--- a/raw_data/Forex Rates/USD-NZD.xlsx
+++ b/raw_data/Forex Rates/USD-NZD.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsb13\Downloads\Forex Rates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsb13\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5411DA4-72A4-4079-BE31-4D6C6F451B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BD9470-DD1C-4BE2-A1FC-6DB99CB0AFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="B2:C282"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +385,6 @@
         <v>45765</v>
       </c>
       <c r="C3">
-        <f>1/0.5938</f>
         <v>1.6840687100033682</v>
       </c>
     </row>
@@ -394,8 +393,7 @@
         <v>45747</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">1/0.5938</f>
-        <v>1.6840687100033682</v>
+        <v>1.7611835153222968</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -403,8 +401,7 @@
         <v>45716</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.7863522686673814</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -412,8 +409,7 @@
         <v>45688</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.774937877174299</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -421,8 +417,7 @@
         <v>45657</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.787629603146228</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -430,8 +425,7 @@
         <v>45625</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6903313049357673</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -439,8 +433,7 @@
         <v>45596</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6730801405387319</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -448,8 +441,7 @@
         <v>45565</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5750511891636478</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -457,8 +449,7 @@
         <v>45534</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6002560409665547</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -466,8 +457,7 @@
         <v>45504</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6803898504453034</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
@@ -475,8 +465,7 @@
         <v>45471</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6414970453053186</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -484,8 +473,7 @@
         <v>45443</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6278691193228065</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
@@ -493,8 +481,7 @@
         <v>45412</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6983695652173914</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -502,8 +489,7 @@
         <v>45380</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6722408026755853</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -511,8 +497,7 @@
         <v>45351</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6428454082470838</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -520,8 +505,7 @@
         <v>45322</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6347882949158083</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -529,8 +513,7 @@
         <v>45289</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.582528881152081</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -538,8 +521,7 @@
         <v>45260</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6246953696181965</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -547,8 +529,7 @@
         <v>45230</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.7167381974248928</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -556,8 +537,7 @@
         <v>45198</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6672224074691564</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -565,8 +545,7 @@
         <v>45169</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6758840288252053</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -574,8 +553,7 @@
         <v>45138</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6105653084232565</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -583,8 +561,7 @@
         <v>45107</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6326530612244896</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -592,8 +569,7 @@
         <v>45077</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6605778811026237</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -601,8 +577,7 @@
         <v>45044</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6175994823681656</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -610,8 +585,7 @@
         <v>45016</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5979546180888462</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -619,8 +593,7 @@
         <v>44985</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6168148746968471</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
@@ -628,8 +601,7 @@
         <v>44957</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5527950310559007</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -637,8 +609,7 @@
         <v>44925</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5748031496062991</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -646,8 +617,7 @@
         <v>44895</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.588057805304113</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -655,8 +625,7 @@
         <v>44865</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.7199862401100789</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -664,8 +633,7 @@
         <v>44834</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.7857142857142856</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -673,8 +641,7 @@
         <v>44804</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6342539630658603</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -682,8 +649,7 @@
         <v>44771</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5928639694170117</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -691,8 +657,7 @@
         <v>44742</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6015374759769381</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -700,8 +665,7 @@
         <v>44712</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5351550506601168</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
@@ -709,8 +673,7 @@
         <v>44680</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5484670176525239</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
@@ -718,8 +681,7 @@
         <v>44651</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4394702749388226</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
@@ -727,8 +689,7 @@
         <v>44620</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4766686355581806</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
@@ -736,8 +697,7 @@
         <v>44592</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5206812652068127</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
@@ -745,8 +705,7 @@
         <v>44561</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.464986815118664</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
@@ -754,8 +713,7 @@
         <v>44530</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4658457930225739</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
@@ -763,8 +721,7 @@
         <v>44498</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.3945056477478734</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
@@ -772,8 +729,7 @@
         <v>44469</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4494854326714017</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
@@ -781,8 +737,7 @@
         <v>44439</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4194464158977997</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
@@ -790,8 +745,7 @@
         <v>44407</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4338973329509608</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
@@ -799,8 +753,7 @@
         <v>44377</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4320492624946297</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
@@ -808,8 +761,7 @@
         <v>44347</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.3755158184319121</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
@@ -817,8 +769,7 @@
         <v>44316</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.3962580284836639</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
@@ -826,8 +777,7 @@
         <v>44286</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4316392269148175</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
@@ -835,8 +785,7 @@
         <v>44253</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.3825521913452232</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
@@ -844,8 +793,7 @@
         <v>44225</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.3902405116085081</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
@@ -853,8 +801,7 @@
         <v>44196</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.3919821826280623</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
@@ -862,8 +809,7 @@
         <v>44165</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4251104460595696</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
@@ -871,8 +817,7 @@
         <v>44134</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5117157974300832</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
@@ -880,8 +825,7 @@
         <v>44104</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5112588786459122</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
@@ -889,8 +833,7 @@
         <v>44074</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4852220406950838</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
@@ -898,8 +841,7 @@
         <v>44043</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5085231558304419</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
@@ -907,8 +849,7 @@
         <v>44012</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5494267121165171</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
@@ -916,8 +857,7 @@
         <v>43980</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6116035455277999</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
@@ -925,8 +865,7 @@
         <v>43951</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6321201240411294</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
@@ -934,8 +873,7 @@
         <v>43921</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.6789791806581598</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
@@ -943,8 +881,7 @@
         <v>43889</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.601024655779699</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
@@ -952,8 +889,7 @@
         <v>43861</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.5470297029702971</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
@@ -961,8 +897,7 @@
         <v>43830</v>
       </c>
       <c r="C67">
-        <f t="shared" si="0"/>
-        <v>1.6840687100033682</v>
+        <v>1.4836795252225519</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
@@ -970,8 +905,7 @@
         <v>43798</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="1">1/0.5938</f>
-        <v>1.6840687100033682</v>
+        <v>1.5571473061351604</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
@@ -979,8 +913,7 @@
         <v>43769</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.559332605644784</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
@@ -988,8 +921,7 @@
         <v>43738</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.596678907871627</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
@@ -997,8 +929,7 @@
         <v>43707</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5802781289506953</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
@@ -1006,8 +937,7 @@
         <v>43677</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5246226558926665</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
@@ -1015,8 +945,7 @@
         <v>43644</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4885382554331648</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
@@ -1024,8 +953,7 @@
         <v>43616</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5311590874291838</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -1033,8 +961,7 @@
         <v>43585</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4981273408239701</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
@@ -1042,8 +969,7 @@
         <v>43553</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4697236919459142</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
@@ -1051,8 +977,7 @@
         <v>43524</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4690759512266784</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
@@ -1060,8 +985,7 @@
         <v>43496</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4459224985540775</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
@@ -1069,8 +993,7 @@
         <v>43465</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4883167137966957</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
@@ -1078,8 +1001,7 @@
         <v>43434</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4551804423748544</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
@@ -1087,8 +1009,7 @@
         <v>43404</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5344483658124906</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
@@ -1096,8 +1017,7 @@
         <v>43371</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5108022359873092</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -1105,8 +1025,7 @@
         <v>43343</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5101177891875566</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
@@ -1114,8 +1033,7 @@
         <v>43312</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4667057788207687</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
@@ -1123,8 +1041,7 @@
         <v>43280</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4775413711583925</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
@@ -1132,8 +1049,7 @@
         <v>43251</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4283673760891302</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
@@ -1141,8 +1057,7 @@
         <v>43220</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4214641080312722</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
@@ -1150,8 +1065,7 @@
         <v>43189</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3817880337156281</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
@@ -1159,8 +1073,7 @@
         <v>43159</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3865779256794233</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
@@ -1168,8 +1081,7 @@
         <v>43131</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3577732518669381</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
@@ -1177,8 +1089,7 @@
         <v>43098</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4088475626937165</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
@@ -1186,8 +1097,7 @@
         <v>43069</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4637002341920373</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
@@ -1195,8 +1105,7 @@
         <v>43039</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4604936468526362</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
@@ -1204,8 +1113,7 @@
         <v>43007</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3871549452073797</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
@@ -1213,8 +1121,7 @@
         <v>42978</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3931457230426303</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
@@ -1222,8 +1129,7 @@
         <v>42947</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3312034078807242</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
@@ -1231,8 +1137,7 @@
         <v>42916</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3636983499249966</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
@@ -1240,8 +1145,7 @@
         <v>42886</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4114326040931544</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
@@ -1249,8 +1153,7 @@
         <v>42853</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4564520827264784</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
@@ -1258,8 +1161,7 @@
         <v>42825</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4273479874393378</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
@@ -1267,8 +1169,7 @@
         <v>42794</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3904338153503895</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
@@ -1276,8 +1177,7 @@
         <v>42766</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3676148796498906</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
@@ -1285,8 +1185,7 @@
         <v>42734</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.442169022209403</v>
       </c>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
@@ -1294,8 +1193,7 @@
         <v>42704</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4118311449950585</v>
       </c>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
@@ -1303,8 +1201,7 @@
         <v>42674</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3984058173682004</v>
       </c>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
@@ -1312,8 +1209,7 @@
         <v>42643</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.372495196266813</v>
       </c>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
@@ -1321,8 +1217,7 @@
         <v>42613</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3793103448275863</v>
       </c>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
@@ -1330,8 +1225,7 @@
         <v>42580</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3890818169190167</v>
       </c>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
@@ -1339,8 +1233,7 @@
         <v>42551</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4017381553125876</v>
       </c>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
@@ -1348,8 +1241,7 @@
         <v>42521</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.478633742422002</v>
       </c>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
@@ -1357,8 +1249,7 @@
         <v>42489</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4332807797047442</v>
       </c>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
@@ -1366,8 +1257,7 @@
         <v>42460</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4473874656245478</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
@@ -1375,8 +1265,7 @@
         <v>42429</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5174506828528072</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
@@ -1384,8 +1273,7 @@
         <v>42398</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5422578655151142</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
@@ -1393,8 +1281,7 @@
         <v>42369</v>
       </c>
       <c r="C115">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4639145073927682</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
@@ -1402,8 +1289,7 @@
         <v>42338</v>
       </c>
       <c r="C116">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5188335358444716</v>
       </c>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
@@ -1411,8 +1297,7 @@
         <v>42307</v>
       </c>
       <c r="C117">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4753614635585719</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
@@ -1420,8 +1305,7 @@
         <v>42277</v>
       </c>
       <c r="C118">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5627441787779339</v>
       </c>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
@@ -1429,8 +1313,7 @@
         <v>42247</v>
       </c>
       <c r="C119">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5772870662460567</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
@@ -1438,8 +1321,7 @@
         <v>42216</v>
       </c>
       <c r="C120">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.5169902912621358</v>
       </c>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
@@ -1447,8 +1329,7 @@
         <v>42185</v>
       </c>
       <c r="C121">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4781966001478197</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
@@ -1456,8 +1337,7 @@
         <v>42153</v>
       </c>
       <c r="C122">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.4070634585619812</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
@@ -1465,8 +1345,7 @@
         <v>42124</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3128528291978467</v>
       </c>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
@@ -1474,8 +1353,7 @@
         <v>42094</v>
       </c>
       <c r="C124">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3386880856760375</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
@@ -1483,8 +1361,7 @@
         <v>42062</v>
       </c>
       <c r="C125">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3220518244315178</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
@@ -1492,8 +1369,7 @@
         <v>42034</v>
       </c>
       <c r="C126">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.3772207684891888</v>
       </c>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
@@ -1501,8 +1377,7 @@
         <v>42004</v>
       </c>
       <c r="C127">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.2825445684237529</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
@@ -1510,8 +1385,7 @@
         <v>41971</v>
       </c>
       <c r="C128">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.2753475322025252</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
@@ -1519,8 +1393,7 @@
         <v>41943</v>
       </c>
       <c r="C129">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.2838618564642443</v>
       </c>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
@@ -1528,8 +1401,7 @@
         <v>41912</v>
       </c>
       <c r="C130">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.2807377049180326</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
@@ -1537,8 +1409,7 @@
         <v>41880</v>
       </c>
       <c r="C131">
-        <f t="shared" si="1"/>
-        <v>1.6840687100033682</v>
+        <v>1.1958861516383639</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
@@ -1546,8 +1417,7 @@
         <v>41851</v>
       </c>
       <c r="C132">
-        <f t="shared" ref="C132:C195" si="2">1/0.5938</f>
-        <v>1.6840687100033682</v>
+        <v>1.1764705882352942</v>
       </c>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
@@ -1555,8 +1425,7 @@
         <v>41820</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1418131993605847</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
@@ -1564,8 +1433,7 @@
         <v>41789</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1766090128250382</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
@@ -1573,8 +1441,7 @@
         <v>41759</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.160496692584426</v>
       </c>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
@@ -1582,8 +1449,7 @@
         <v>41729</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.154334526145677</v>
       </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
@@ -1591,8 +1457,7 @@
         <v>41698</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1920371915603767</v>
       </c>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
@@ -1600,8 +1465,7 @@
         <v>41670</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2367054167697256</v>
       </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
@@ -1609,8 +1473,7 @@
         <v>41639</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2174336498660823</v>
       </c>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
@@ -1618,8 +1481,7 @@
         <v>41607</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2309207287050714</v>
       </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
@@ -1627,8 +1489,7 @@
         <v>41578</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2102142079148008</v>
       </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
@@ -1636,8 +1497,7 @@
         <v>41547</v>
       </c>
       <c r="C142">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2048192771084338</v>
       </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
@@ -1645,8 +1505,7 @@
         <v>41516</v>
       </c>
       <c r="C143">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2941633234114145</v>
       </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
@@ -1654,8 +1513,7 @@
         <v>41486</v>
       </c>
       <c r="C144">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2523481527864746</v>
       </c>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
@@ -1663,8 +1521,7 @@
         <v>41453</v>
       </c>
       <c r="C145">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2923235978288963</v>
       </c>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
@@ -1672,8 +1529,7 @@
         <v>41425</v>
       </c>
       <c r="C146">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2584948401711553</v>
       </c>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
@@ -1681,8 +1537,7 @@
         <v>41394</v>
       </c>
       <c r="C147">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1678150181011329</v>
       </c>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
@@ -1690,8 +1545,7 @@
         <v>41362</v>
       </c>
       <c r="C148">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1946004061641382</v>
       </c>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
@@ -1699,8 +1553,7 @@
         <v>41333</v>
       </c>
       <c r="C149">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2125621438098704</v>
       </c>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
@@ -1708,8 +1561,7 @@
         <v>41305</v>
       </c>
       <c r="C150">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1921793037672865</v>
       </c>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
@@ -1717,8 +1569,7 @@
         <v>41274</v>
       </c>
       <c r="C151">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2065637065637065</v>
       </c>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
@@ -1726,8 +1577,7 @@
         <v>41243</v>
       </c>
       <c r="C152">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2189176011701608</v>
       </c>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
@@ -1735,8 +1585,7 @@
         <v>41213</v>
       </c>
       <c r="C153">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.21580547112462</v>
       </c>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
@@ -1744,8 +1593,7 @@
         <v>41180</v>
       </c>
       <c r="C154">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2046741356463078</v>
       </c>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
@@ -1753,8 +1601,7 @@
         <v>41152</v>
       </c>
       <c r="C155">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2447099825740602</v>
       </c>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
@@ -1762,8 +1609,7 @@
         <v>41121</v>
       </c>
       <c r="C156">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2365524916532706</v>
       </c>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
@@ -1771,8 +1617,7 @@
         <v>41089</v>
       </c>
       <c r="C157">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2479720454261825</v>
       </c>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
@@ -1780,8 +1625,7 @@
         <v>41060</v>
       </c>
       <c r="C158">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3267878466233249</v>
       </c>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
@@ -1789,8 +1633,7 @@
         <v>41029</v>
       </c>
       <c r="C159">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2217470983506413</v>
       </c>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
@@ -1798,8 +1641,7 @@
         <v>40998</v>
       </c>
       <c r="C160">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2214486380847687</v>
       </c>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
@@ -1807,8 +1649,7 @@
         <v>40968</v>
       </c>
       <c r="C161">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1988970147464333</v>
       </c>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
@@ -1816,8 +1657,7 @@
         <v>40939</v>
       </c>
       <c r="C162">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2094823415578133</v>
       </c>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
@@ -1825,8 +1665,7 @@
         <v>40907</v>
       </c>
       <c r="C163">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2866700977869274</v>
       </c>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
@@ -1834,8 +1673,7 @@
         <v>40877</v>
       </c>
       <c r="C164">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2812299807815504</v>
       </c>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
@@ -1843,8 +1681,7 @@
         <v>40847</v>
       </c>
       <c r="C165">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2396181975951408</v>
       </c>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
@@ -1852,8 +1689,7 @@
         <v>40816</v>
       </c>
       <c r="C166">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3133701076963489</v>
       </c>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
@@ -1861,8 +1697,7 @@
         <v>40786</v>
       </c>
       <c r="C167">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1708230886313078</v>
       </c>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
@@ -1870,8 +1705,7 @@
         <v>40753</v>
       </c>
       <c r="C168">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.1372682815876265</v>
       </c>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
@@ -1879,8 +1713,7 @@
         <v>40724</v>
       </c>
       <c r="C169">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.20598166907863</v>
       </c>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
@@ -1888,8 +1721,7 @@
         <v>40694</v>
       </c>
       <c r="C170">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2137395314965409</v>
       </c>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
@@ -1897,8 +1729,7 @@
         <v>40662</v>
       </c>
       <c r="C171">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2347203358439314</v>
       </c>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
@@ -1906,8 +1737,7 @@
         <v>40633</v>
       </c>
       <c r="C172">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3131976362442548</v>
       </c>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
@@ -1915,8 +1745,7 @@
         <v>40602</v>
       </c>
       <c r="C173">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3290802764486975</v>
       </c>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
@@ -1924,8 +1753,7 @@
         <v>40574</v>
       </c>
       <c r="C174">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2938284383490748</v>
       </c>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
@@ -1933,8 +1761,7 @@
         <v>40543</v>
       </c>
       <c r="C175">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.2817226352217379</v>
       </c>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
@@ -1942,8 +1769,7 @@
         <v>40512</v>
       </c>
       <c r="C176">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3466199838405601</v>
       </c>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
@@ -1951,8 +1777,7 @@
         <v>40480</v>
       </c>
       <c r="C177">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3046314416177431</v>
       </c>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
@@ -1960,8 +1785,7 @@
         <v>40451</v>
       </c>
       <c r="C178">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3618412093149939</v>
       </c>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
@@ -1969,8 +1793,7 @@
         <v>40421</v>
       </c>
       <c r="C179">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.4306151645207441</v>
       </c>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
@@ -1978,8 +1801,7 @@
         <v>40389</v>
       </c>
       <c r="C180">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3774104683195594</v>
       </c>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
@@ -1987,8 +1809,7 @@
         <v>40359</v>
       </c>
       <c r="C181">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.4604936468526362</v>
       </c>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
@@ -1996,8 +1817,7 @@
         <v>40329</v>
       </c>
       <c r="C182">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.4695077149155034</v>
       </c>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
@@ -2005,8 +1825,7 @@
         <v>40298</v>
       </c>
       <c r="C183">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3755158184319121</v>
       </c>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
@@ -2014,8 +1833,7 @@
         <v>40268</v>
       </c>
       <c r="C184">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.4072614691809737</v>
       </c>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
@@ -2023,8 +1841,7 @@
         <v>40235</v>
       </c>
       <c r="C185">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.4322543683758235</v>
       </c>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
@@ -2032,8 +1849,7 @@
         <v>40207</v>
       </c>
       <c r="C186">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.4265335235378032</v>
       </c>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
@@ -2041,8 +1857,7 @@
         <v>40178</v>
       </c>
       <c r="C187">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3835085777531821</v>
       </c>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
@@ -2050,8 +1865,7 @@
         <v>40147</v>
       </c>
       <c r="C188">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3966480446927374</v>
       </c>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
@@ -2059,8 +1873,7 @@
         <v>40116</v>
       </c>
       <c r="C189">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.392563709789723</v>
       </c>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
@@ -2068,8 +1881,7 @@
         <v>40086</v>
       </c>
       <c r="C190">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.3827433628318584</v>
       </c>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
@@ -2077,8 +1889,7 @@
         <v>40056</v>
       </c>
       <c r="C191">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.4596409283316303</v>
       </c>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
@@ -2086,8 +1897,7 @@
         <v>40025</v>
       </c>
       <c r="C192">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.5110305228165608</v>
       </c>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
@@ -2095,8 +1905,7 @@
         <v>39994</v>
       </c>
       <c r="C193">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.5487068297971194</v>
       </c>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
@@ -2104,8 +1913,7 @@
         <v>39962</v>
       </c>
       <c r="C194">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.5612802498048401</v>
       </c>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
@@ -2113,8 +1921,7 @@
         <v>39933</v>
       </c>
       <c r="C195">
-        <f t="shared" si="2"/>
-        <v>1.6840687100033682</v>
+        <v>1.7692852087756545</v>
       </c>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
@@ -2122,8 +1929,7 @@
         <v>39903</v>
       </c>
       <c r="C196">
-        <f t="shared" ref="C196:C259" si="3">1/0.5938</f>
-        <v>1.6840687100033682</v>
+        <v>1.7873100983020553</v>
       </c>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
@@ -2131,8 +1937,7 @@
         <v>39871</v>
       </c>
       <c r="C197">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.9968051118210861</v>
       </c>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
@@ -2140,8 +1945,7 @@
         <v>39843</v>
       </c>
       <c r="C198">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.9650225977598741</v>
       </c>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
@@ -2149,8 +1953,7 @@
         <v>39813</v>
       </c>
       <c r="C199">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.7262213015708612</v>
       </c>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
@@ -2158,8 +1961,7 @@
         <v>39780</v>
       </c>
       <c r="C200">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.8214936247723132</v>
       </c>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
@@ -2167,8 +1969,7 @@
         <v>39752</v>
       </c>
       <c r="C201">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.7161489617298782</v>
       </c>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
@@ -2176,8 +1977,7 @@
         <v>39721</v>
       </c>
       <c r="C202">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4929829799940282</v>
       </c>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
@@ -2185,8 +1985,7 @@
         <v>39689</v>
       </c>
       <c r="C203">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4275517487508922</v>
       </c>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
@@ -2194,8 +1993,7 @@
         <v>39660</v>
       </c>
       <c r="C204">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3618412093149939</v>
       </c>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
@@ -2203,8 +2001,7 @@
         <v>39629</v>
       </c>
       <c r="C205">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3119916032537391</v>
       </c>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
@@ -2212,8 +2009,7 @@
         <v>39598</v>
       </c>
       <c r="C206">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.277139208173691</v>
       </c>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
@@ -2221,8 +2017,7 @@
         <v>39568</v>
       </c>
       <c r="C207">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.2786088735455823</v>
       </c>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
@@ -2230,8 +2025,7 @@
         <v>39538</v>
       </c>
       <c r="C208">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.272426517368622</v>
       </c>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
@@ -2239,8 +2033,7 @@
         <v>39507</v>
       </c>
       <c r="C209">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.2518778167250877</v>
       </c>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
@@ -2248,8 +2041,7 @@
         <v>39478</v>
       </c>
       <c r="C210">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.2696800406297613</v>
       </c>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
@@ -2257,8 +2049,7 @@
         <v>39447</v>
       </c>
       <c r="C211">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3056534795665231</v>
       </c>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
@@ -2266,8 +2057,7 @@
         <v>39416</v>
       </c>
       <c r="C212">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3083867591259977</v>
       </c>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
@@ -2275,8 +2065,7 @@
         <v>39386</v>
       </c>
       <c r="C213">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.29315918789603</v>
       </c>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
@@ -2284,8 +2073,7 @@
         <v>39353</v>
       </c>
       <c r="C214">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3194352816994326</v>
       </c>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
@@ -2293,8 +2081,7 @@
         <v>39325</v>
       </c>
       <c r="C215">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4251104460595696</v>
       </c>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
@@ -2302,8 +2089,7 @@
         <v>39294</v>
       </c>
       <c r="C216">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3116474291710389</v>
       </c>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
@@ -2311,8 +2097,7 @@
         <v>39262</v>
       </c>
       <c r="C217">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.2941633234114145</v>
       </c>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
@@ -2320,8 +2105,7 @@
         <v>39233</v>
       </c>
       <c r="C218">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3572204125950054</v>
       </c>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
@@ -2329,8 +2113,7 @@
         <v>39202</v>
       </c>
       <c r="C219">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3504388926401079</v>
       </c>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
@@ -2338,8 +2121,7 @@
         <v>39171</v>
       </c>
       <c r="C220">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3997760358342664</v>
       </c>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
@@ -2347,8 +2129,7 @@
         <v>39141</v>
       </c>
       <c r="C221">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.42571998859424</v>
       </c>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
@@ -2356,8 +2137,7 @@
         <v>39113</v>
       </c>
       <c r="C222">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4467592592592591</v>
       </c>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
@@ -2365,8 +2145,7 @@
         <v>39080</v>
       </c>
       <c r="C223">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4206563432305725</v>
       </c>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
@@ -2374,8 +2153,7 @@
         <v>39051</v>
       </c>
       <c r="C224">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4615609470914936</v>
       </c>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
@@ -2383,8 +2161,7 @@
         <v>39021</v>
       </c>
       <c r="C225">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4916467780429594</v>
       </c>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
@@ -2392,8 +2169,7 @@
         <v>38989</v>
       </c>
       <c r="C226">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5316281206922959</v>
       </c>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
@@ -2401,8 +2177,7 @@
         <v>38960</v>
       </c>
       <c r="C227">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5236934328813043</v>
       </c>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
@@ -2410,8 +2185,7 @@
         <v>38929</v>
       </c>
       <c r="C228">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.6162922256343946</v>
       </c>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
@@ -2419,8 +2193,7 @@
         <v>38898</v>
       </c>
       <c r="C229">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.6444663706627201</v>
       </c>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
@@ -2428,8 +2201,7 @@
         <v>38868</v>
       </c>
       <c r="C230">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5765410688948447</v>
       </c>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
@@ -2437,8 +2209,7 @@
         <v>38835</v>
       </c>
       <c r="C231">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5659254619480114</v>
       </c>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
@@ -2446,8 +2217,7 @@
         <v>38807</v>
       </c>
       <c r="C232">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.6241676140977748</v>
       </c>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
@@ -2455,8 +2225,7 @@
         <v>38776</v>
       </c>
       <c r="C233">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5112588786459122</v>
       </c>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
@@ -2464,8 +2233,7 @@
         <v>38748</v>
       </c>
       <c r="C234">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4524328249818446</v>
       </c>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
@@ -2473,8 +2241,7 @@
         <v>38716</v>
       </c>
       <c r="C235">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4626298083954952</v>
       </c>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
@@ -2482,8 +2249,7 @@
         <v>38686</v>
       </c>
       <c r="C236">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4226774790155072</v>
       </c>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
@@ -2491,8 +2257,7 @@
         <v>38656</v>
       </c>
       <c r="C237">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4279594459517349</v>
       </c>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
@@ -2500,8 +2265,7 @@
         <v>38625</v>
       </c>
       <c r="C238">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4463407578825571</v>
       </c>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
@@ -2509,8 +2273,7 @@
         <v>38595</v>
       </c>
       <c r="C239">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4359563469270533</v>
       </c>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
@@ -2518,8 +2281,7 @@
         <v>38562</v>
       </c>
       <c r="C240">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4692918013517484</v>
       </c>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
@@ -2527,8 +2289,7 @@
         <v>38533</v>
       </c>
       <c r="C241">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4338973329509608</v>
       </c>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
@@ -2536,8 +2297,7 @@
         <v>38503</v>
       </c>
       <c r="C242">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4186409419775856</v>
       </c>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
@@ -2545,8 +2305,7 @@
         <v>38471</v>
       </c>
       <c r="C243">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3668671405139421</v>
       </c>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
@@ -2554,8 +2313,7 @@
         <v>38442</v>
       </c>
       <c r="C244">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4050864128143881</v>
       </c>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
@@ -2563,8 +2321,7 @@
         <v>38411</v>
       </c>
       <c r="C245">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3762730525736306</v>
       </c>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
@@ -2572,8 +2329,7 @@
         <v>38383</v>
       </c>
       <c r="C246">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4074595355383532</v>
       </c>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
@@ -2581,8 +2337,7 @@
         <v>38352</v>
       </c>
       <c r="C247">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.3923698134224451</v>
       </c>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
@@ -2590,8 +2345,7 @@
         <v>38321</v>
       </c>
       <c r="C248">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.400364094664613</v>
       </c>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
@@ -2599,8 +2353,7 @@
         <v>38289</v>
       </c>
       <c r="C249">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4619883040935671</v>
       </c>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
@@ -2608,8 +2361,7 @@
         <v>38260</v>
       </c>
       <c r="C250">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4753614635585719</v>
       </c>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
@@ -2617,8 +2369,7 @@
         <v>38230</v>
       </c>
       <c r="C251">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5257857796765335</v>
       </c>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
@@ -2626,8 +2377,7 @@
         <v>38198</v>
       </c>
       <c r="C252">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5701051970482023</v>
       </c>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
@@ -2635,8 +2385,7 @@
         <v>38168</v>
       </c>
       <c r="C253">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5713387806411063</v>
       </c>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
@@ -2644,8 +2393,7 @@
         <v>38138</v>
       </c>
       <c r="C254">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5820281601012498</v>
       </c>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
@@ -2653,8 +2401,7 @@
         <v>38107</v>
       </c>
       <c r="C255">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.598976654940838</v>
       </c>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
@@ -2662,8 +2409,7 @@
         <v>38077</v>
       </c>
       <c r="C256">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4956625785222855</v>
       </c>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
@@ -2671,8 +2417,7 @@
         <v>38044</v>
       </c>
       <c r="C257">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4551804423748544</v>
       </c>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
@@ -2680,8 +2425,7 @@
         <v>38016</v>
       </c>
       <c r="C258">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.4836795252225519</v>
       </c>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
@@ -2689,8 +2433,7 @@
         <v>37986</v>
       </c>
       <c r="C259">
-        <f t="shared" si="3"/>
-        <v>1.6840687100033682</v>
+        <v>1.5253203172666261</v>
       </c>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
@@ -2698,8 +2441,7 @@
         <v>37953</v>
       </c>
       <c r="C260">
-        <f t="shared" ref="C260:C282" si="4">1/0.5938</f>
-        <v>1.6840687100033682</v>
+        <v>1.562255897516013</v>
       </c>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
@@ -2707,8 +2449,7 @@
         <v>37925</v>
       </c>
       <c r="C261">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.6297262059973923</v>
       </c>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
@@ -2716,8 +2457,7 @@
         <v>37894</v>
       </c>
       <c r="C262">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.6801075268817205</v>
       </c>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
@@ -2725,8 +2465,7 @@
         <v>37862</v>
       </c>
       <c r="C263">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.7292062943109112</v>
       </c>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
@@ -2734,8 +2473,7 @@
         <v>37833</v>
       </c>
       <c r="C264">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.720282126268708</v>
       </c>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
@@ -2743,8 +2481,7 @@
         <v>37802</v>
       </c>
       <c r="C265">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.7018379850238257</v>
       </c>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
@@ -2752,8 +2489,7 @@
         <v>37771</v>
       </c>
       <c r="C266">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.733402669440111</v>
       </c>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
@@ -2761,8 +2497,7 @@
         <v>37741</v>
       </c>
       <c r="C267">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.779359430604982</v>
       </c>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
@@ -2770,8 +2505,7 @@
         <v>37711</v>
       </c>
       <c r="C268">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.8018018018018016</v>
       </c>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
@@ -2779,8 +2513,7 @@
         <v>37680</v>
       </c>
       <c r="C269">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.7866714311238163</v>
       </c>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
@@ -2788,8 +2521,7 @@
         <v>37652</v>
       </c>
       <c r="C270">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.83452577508714</v>
       </c>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
@@ -2797,8 +2529,7 @@
         <v>37621</v>
       </c>
       <c r="C271">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>1.9065776930409915</v>
       </c>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
@@ -2806,8 +2537,7 @@
         <v>37589</v>
       </c>
       <c r="C272">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.0072260136491371</v>
       </c>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
@@ -2815,8 +2545,7 @@
         <v>37560</v>
       </c>
       <c r="C273">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.0580366330520685</v>
       </c>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
@@ -2824,8 +2553,7 @@
         <v>37529</v>
       </c>
       <c r="C274">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.1326508850501176</v>
       </c>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
@@ -2833,8 +2561,7 @@
         <v>37498</v>
       </c>
       <c r="C275">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.1317416329140908</v>
       </c>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
@@ -2842,8 +2569,7 @@
         <v>37468</v>
       </c>
       <c r="C276">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.150075252633842</v>
       </c>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
@@ -2851,8 +2577,7 @@
         <v>37435</v>
       </c>
       <c r="C277">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.0529665366454526</v>
       </c>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
@@ -2860,8 +2585,7 @@
         <v>37407</v>
       </c>
       <c r="C278">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.0807324178110695</v>
       </c>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
@@ -2869,8 +2593,7 @@
         <v>37376</v>
       </c>
       <c r="C279">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.2356360384529399</v>
       </c>
     </row>
     <row r="280" spans="2:3" x14ac:dyDescent="0.25">
@@ -2878,8 +2601,7 @@
         <v>37344</v>
       </c>
       <c r="C280">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.2706630336058127</v>
       </c>
     </row>
     <row r="281" spans="2:3" x14ac:dyDescent="0.25">
@@ -2887,8 +2609,7 @@
         <v>37315</v>
       </c>
       <c r="C281">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.3713540431586435</v>
       </c>
     </row>
     <row r="282" spans="2:3" x14ac:dyDescent="0.25">
@@ -2896,8 +2617,7 @@
         <v>37287</v>
       </c>
       <c r="C282">
-        <f t="shared" si="4"/>
-        <v>1.6840687100033682</v>
+        <v>2.4026910139356077</v>
       </c>
     </row>
   </sheetData>
